--- a/Missing_data.xlsx
+++ b/Missing_data.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Linear_Regression" sheetId="4" r:id="rId2"/>
-    <sheet name="Fill_forward" sheetId="5" r:id="rId3"/>
-    <sheet name="Linear_Interpolation" sheetId="3" r:id="rId4"/>
-    <sheet name="Mean" sheetId="2" r:id="rId5"/>
+    <sheet name="Linear_Regression" sheetId="4" r:id="rId1"/>
+    <sheet name="Fill_forward" sheetId="5" r:id="rId2"/>
+    <sheet name="Linear_Interpolation" sheetId="3" r:id="rId3"/>
+    <sheet name="Mean" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,49 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Fresh</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Grocery</t>
-  </si>
-  <si>
-    <t>Frozen</t>
-  </si>
-  <si>
-    <t>Detergents_Paper</t>
-  </si>
-  <si>
-    <t>Delicassen</t>
-  </si>
-  <si>
-    <t>Predicted Value</t>
-  </si>
-  <si>
-    <t>Actual Value</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Interpolate</t>
-  </si>
-  <si>
-    <t>Fill forward</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Actual_Value</t>
   </si>
@@ -436,402 +393,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:M31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>20398</v>
-      </c>
-      <c r="D2">
-        <v>1137</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4407</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>975</v>
-      </c>
-      <c r="K2" s="1">
-        <v>7972.6552510000001</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>955</v>
-      </c>
-      <c r="D3">
-        <v>5479</v>
-      </c>
-      <c r="E3">
-        <v>6536</v>
-      </c>
-      <c r="F3">
-        <v>333</v>
-      </c>
-      <c r="G3">
-        <v>2840</v>
-      </c>
-      <c r="H3">
-        <v>707</v>
-      </c>
-      <c r="K3" s="1">
-        <v>7972.6552510000001</v>
-      </c>
-      <c r="M3">
-        <v>6536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>12356</v>
-      </c>
-      <c r="D4">
-        <v>6036</v>
-      </c>
-      <c r="E4">
-        <v>8887</v>
-      </c>
-      <c r="F4">
-        <v>402</v>
-      </c>
-      <c r="G4">
-        <v>1382</v>
-      </c>
-      <c r="H4">
-        <v>2794</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5795.7198179999996</v>
-      </c>
-      <c r="M4">
-        <v>6036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>12680</v>
-      </c>
-      <c r="D5">
-        <v>3243</v>
-      </c>
-      <c r="E5">
-        <v>4157</v>
-      </c>
-      <c r="F5">
-        <v>660</v>
-      </c>
-      <c r="G5">
-        <v>761</v>
-      </c>
-      <c r="H5">
-        <v>786</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2891.7191779999998</v>
-      </c>
-      <c r="M5">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>894</v>
-      </c>
-      <c r="D6">
-        <v>1703</v>
-      </c>
-      <c r="E6">
-        <v>1841</v>
-      </c>
-      <c r="F6">
-        <v>744</v>
-      </c>
-      <c r="G6">
-        <v>759</v>
-      </c>
-      <c r="H6">
-        <v>1153</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1525.7175400000001</v>
-      </c>
-      <c r="M6">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>39679</v>
-      </c>
-      <c r="D7">
-        <v>3944</v>
-      </c>
-      <c r="E7">
-        <v>4955</v>
-      </c>
-      <c r="F7">
-        <v>1364</v>
-      </c>
-      <c r="G7">
-        <v>523</v>
-      </c>
-      <c r="H7">
-        <v>2235</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2891.7191779999998</v>
-      </c>
-      <c r="M7">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="1">
-        <v>8163</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K11" s="1">
-        <v>19810.5</v>
-      </c>
-      <c r="M11">
-        <v>6536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K12" s="1">
-        <v>17257.5</v>
-      </c>
-      <c r="M12">
-        <v>6036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K13">
-        <v>1319</v>
-      </c>
-      <c r="M13">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K14">
-        <v>1101.5</v>
-      </c>
-      <c r="M14">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K15">
-        <v>378.5</v>
-      </c>
-      <c r="M15">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18">
-        <v>9794</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K19">
-        <v>19816</v>
-      </c>
-      <c r="M19">
-        <v>6536</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K20">
-        <v>4888</v>
-      </c>
-      <c r="M20">
-        <v>6036</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K21">
-        <v>70</v>
-      </c>
-      <c r="M21">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K22">
-        <v>1824</v>
-      </c>
-      <c r="M22">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K23">
-        <v>41</v>
-      </c>
-      <c r="M23">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2360.87299935293</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K27" s="1">
-        <v>6927.9082104175905</v>
-      </c>
-      <c r="M27">
-        <v>6536</v>
-      </c>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K28" s="1">
-        <v>6011.6176352340999</v>
-      </c>
-      <c r="M28">
-        <v>6036</v>
-      </c>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K29" s="1">
-        <v>1152.34849146438</v>
-      </c>
-      <c r="M29">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K30" s="1">
-        <v>290.10716059807601</v>
-      </c>
-      <c r="M30">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K31" s="1">
-        <v>1494.6174581632999</v>
-      </c>
-      <c r="M31">
-        <v>523</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -842,10 +403,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,6 +455,77 @@
       </c>
       <c r="B7" s="1">
         <v>1494.6174581632999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>9794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6536</v>
+      </c>
+      <c r="B3">
+        <v>19816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6036</v>
+      </c>
+      <c r="B4">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>761</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1153</v>
+      </c>
+      <c r="B6">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>523</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -913,34 +545,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>9794</v>
+      <c r="B2" s="1">
+        <v>8163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6536</v>
       </c>
-      <c r="B3">
-        <v>19816</v>
+      <c r="B3" s="1">
+        <v>19810.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6036</v>
       </c>
-      <c r="B4">
-        <v>4888</v>
+      <c r="B4" s="1">
+        <v>17257.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +580,7 @@
         <v>761</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +588,7 @@
         <v>1153</v>
       </c>
       <c r="B6">
-        <v>1824</v>
+        <v>1101.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +596,7 @@
         <v>523</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>378.5</v>
       </c>
     </row>
   </sheetData>
@@ -984,81 +616,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6536</v>
-      </c>
-      <c r="B3" s="1">
-        <v>19810.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6036</v>
-      </c>
-      <c r="B4" s="1">
-        <v>17257.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>761</v>
-      </c>
-      <c r="B5">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1153</v>
-      </c>
-      <c r="B6">
-        <v>1101.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>523</v>
-      </c>
-      <c r="B7">
-        <v>378.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
